--- a/sheet_dataframe_process/tests/files/4_fields.xlsx
+++ b/sheet_dataframe_process/tests/files/4_fields.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">country</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Second street</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
   </si>
   <si>
     <t xml:space="preserve">AO</t>
@@ -59,8 +62,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -127,12 +131,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -153,13 +161,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C1:G9"/>
+  <dimension ref="C1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.95"/>
@@ -195,19 +203,25 @@
       <c r="G5" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="I5" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>45587</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -216,15 +230,15 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
